--- a/Diplom/reports/Результаты по моделям.xlsx
+++ b/Diplom/reports/Результаты по моделям.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Netology\dz_repository\DIPLOM\Diplom\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A64843D-4B9C-4EF0-9D82-3D7947F96C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F19651-1FA1-4BF5-BD52-7486C59F9169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AA1D574-FB87-428E-85CC-C3C258243E80}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>epochs</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>svd_vectors_ngrams_redused.csv</t>
+  </si>
+  <si>
+    <t>lightfm_bert_full_data_100c_10e.model</t>
+  </si>
+  <si>
+    <t>bert_vectors_redused</t>
   </si>
 </sst>
 </file>
@@ -129,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -189,11 +195,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,6 +278,23 @@
     <xf numFmtId="21" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2ED457-5972-4936-BEE3-6C51A6128E0A}">
-  <dimension ref="A3:I11"/>
+  <dimension ref="A3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,33 +830,62 @@
         <v>22.015999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="17">
         <v>100</v>
       </c>
-      <c r="D11" s="9">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18">
         <v>6.5138888888888885E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="18">
         <v>0.66142361111111114</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="17">
         <v>18602</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="17">
         <v>3.2210000000000001</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="17">
         <v>17.097999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20">
+        <v>100</v>
+      </c>
+      <c r="D12" s="20">
+        <v>10</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.1837037037037037</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.67527777777777775</v>
+      </c>
+      <c r="G12" s="20">
+        <v>18028</v>
+      </c>
+      <c r="H12" s="20">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="I12" s="20">
+        <v>16.57</v>
       </c>
     </row>
   </sheetData>
